--- a/Code/Results/Cases/Case_3_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_252/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.56040681544045</v>
+        <v>12.49760842841439</v>
       </c>
       <c r="C2">
-        <v>10.88055865993746</v>
+        <v>10.31311485474843</v>
       </c>
       <c r="D2">
-        <v>4.877247112996312</v>
+        <v>6.952287733493436</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>44.36222783984939</v>
+        <v>49.05179531031379</v>
       </c>
       <c r="G2">
-        <v>2.133516663365426</v>
+        <v>3.731833816890445</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>28.24674817947172</v>
+        <v>32.79219347728996</v>
       </c>
       <c r="J2">
-        <v>8.299526352904673</v>
+        <v>11.57120687934617</v>
       </c>
       <c r="K2">
-        <v>12.21181543780595</v>
+        <v>13.92714429132187</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>11.66500852589233</v>
+        <v>12.36815436899244</v>
       </c>
       <c r="C3">
-        <v>10.21512495499546</v>
+        <v>10.17389818579716</v>
       </c>
       <c r="D3">
-        <v>4.550705311738612</v>
+        <v>6.95789911822943</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>42.83103876791765</v>
+        <v>48.75822040275949</v>
       </c>
       <c r="G3">
-        <v>2.142876208560204</v>
+        <v>3.735061714448932</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>27.57184695342061</v>
+        <v>32.66522112047451</v>
       </c>
       <c r="J3">
-        <v>8.039946316897719</v>
+        <v>11.55968218319675</v>
       </c>
       <c r="K3">
-        <v>11.34593861002417</v>
+        <v>13.84357707147129</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>11.08654073924633</v>
+        <v>12.29244730342642</v>
       </c>
       <c r="C4">
-        <v>9.79438550847251</v>
+        <v>10.09081884668385</v>
       </c>
       <c r="D4">
-        <v>4.339758857841722</v>
+        <v>6.96372530009569</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>41.89469842443974</v>
+        <v>48.5857898570913</v>
       </c>
       <c r="G4">
-        <v>2.148759017810177</v>
+        <v>3.73714579118933</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>27.16540866501637</v>
+        <v>32.59129457117657</v>
       </c>
       <c r="J4">
-        <v>7.883114622989343</v>
+        <v>11.55500796382237</v>
       </c>
       <c r="K4">
-        <v>10.90926599525166</v>
+        <v>13.79628871250913</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>10.84350615031367</v>
+        <v>12.26258531599481</v>
       </c>
       <c r="C5">
-        <v>9.619991550542235</v>
+        <v>10.05760990460859</v>
       </c>
       <c r="D5">
-        <v>4.251138678821652</v>
+        <v>6.966698154444735</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>41.51439804133101</v>
+        <v>48.51753304315556</v>
       </c>
       <c r="G5">
-        <v>2.151192502389065</v>
+        <v>3.738020847014389</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>27.00181778525707</v>
+        <v>32.56219479329508</v>
       </c>
       <c r="J5">
-        <v>7.819897215238327</v>
+        <v>11.55370812733184</v>
       </c>
       <c r="K5">
-        <v>10.73613911161957</v>
+        <v>13.77804815087575</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>10.80270677311085</v>
+        <v>12.25768760564685</v>
       </c>
       <c r="C6">
-        <v>9.590860331472467</v>
+        <v>10.05213586392019</v>
       </c>
       <c r="D6">
-        <v>4.236262008321532</v>
+        <v>6.967227942308185</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>41.45133557208134</v>
+        <v>48.50632162171384</v>
       </c>
       <c r="G6">
-        <v>2.15159882216119</v>
+        <v>3.73816770906511</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>26.97477774704823</v>
+        <v>32.55742506449046</v>
       </c>
       <c r="J6">
-        <v>7.809443432141232</v>
+        <v>11.55352884751589</v>
       </c>
       <c r="K6">
-        <v>10.70726124142544</v>
+        <v>13.77508202117208</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>11.08329277908482</v>
+        <v>12.29204051867663</v>
       </c>
       <c r="C7">
-        <v>9.792045284028541</v>
+        <v>10.09036830564446</v>
       </c>
       <c r="D7">
-        <v>4.338574494588993</v>
+        <v>6.963762969530864</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>41.88956400284174</v>
+        <v>48.58486113012662</v>
       </c>
       <c r="G7">
-        <v>2.148791687560613</v>
+        <v>3.737157488000071</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>27.1631941266128</v>
+        <v>32.59089795373105</v>
       </c>
       <c r="J7">
-        <v>7.882259175059919</v>
+        <v>11.55498798342117</v>
       </c>
       <c r="K7">
-        <v>10.90694002034479</v>
+        <v>13.79603852123921</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.2575717254412</v>
+        <v>12.45221266600198</v>
       </c>
       <c r="C8">
-        <v>10.65369950414807</v>
+        <v>10.26464098668703</v>
       </c>
       <c r="D8">
-        <v>4.766804824486736</v>
+        <v>6.953728514025712</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>43.83365303258519</v>
+        <v>48.94897275177786</v>
       </c>
       <c r="G8">
-        <v>2.136716849800285</v>
+        <v>3.732925655276739</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>28.01241105387938</v>
+        <v>32.74758303462028</v>
       </c>
       <c r="J8">
-        <v>8.209522718943139</v>
+        <v>11.56673531318657</v>
       </c>
       <c r="K8">
-        <v>11.91892367701471</v>
+        <v>13.89750707436058</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>14.33711102566689</v>
+        <v>12.79446508917625</v>
       </c>
       <c r="C9">
-        <v>12.24377201366737</v>
+        <v>10.62348497829853</v>
       </c>
       <c r="D9">
-        <v>5.525191388206567</v>
+        <v>6.952924896379267</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>47.66525517147801</v>
+        <v>49.72309350978052</v>
       </c>
       <c r="G9">
-        <v>2.114019217311546</v>
+        <v>3.725433096568447</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>29.73975650614606</v>
+        <v>33.08631831306225</v>
       </c>
       <c r="J9">
-        <v>8.869617418039631</v>
+        <v>11.60877329974384</v>
       </c>
       <c r="K9">
-        <v>13.93127941059782</v>
+        <v>14.12750945212752</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>15.73558274182659</v>
+        <v>13.06052414946532</v>
       </c>
       <c r="C10">
-        <v>13.43068832673572</v>
+        <v>10.89488718851029</v>
       </c>
       <c r="D10">
-        <v>6.035141100982826</v>
+        <v>6.963792355107554</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.48156089269573</v>
+        <v>50.32562240902146</v>
       </c>
       <c r="G10">
-        <v>2.097790672242211</v>
+        <v>3.720413626236144</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>31.04636322491058</v>
+        <v>33.35359075913089</v>
       </c>
       <c r="J10">
-        <v>9.363871481587609</v>
+        <v>11.65114290635816</v>
       </c>
       <c r="K10">
-        <v>15.28634747371899</v>
+        <v>14.31409950750622</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>16.34534565115476</v>
+        <v>13.1841665925265</v>
       </c>
       <c r="C11">
-        <v>13.95868423272729</v>
+        <v>11.01947094925209</v>
       </c>
       <c r="D11">
-        <v>6.257466126101299</v>
+        <v>6.971204989577963</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>51.76217342058087</v>
+        <v>50.60640272176905</v>
       </c>
       <c r="G11">
-        <v>2.09046715255478</v>
+        <v>3.718234222255561</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>31.6492709404132</v>
+        <v>33.47898706161649</v>
       </c>
       <c r="J11">
-        <v>9.590564712433622</v>
+        <v>11.67288204482321</v>
       </c>
       <c r="K11">
-        <v>15.87773058031582</v>
+        <v>14.40250049878202</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>16.57260122291904</v>
+        <v>13.23131413534141</v>
       </c>
       <c r="C12">
-        <v>14.1560598160049</v>
+        <v>11.06676186724516</v>
       </c>
       <c r="D12">
-        <v>6.340321548842947</v>
+        <v>6.974364665737866</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>52.24705556329584</v>
+        <v>50.71362922305364</v>
       </c>
       <c r="G12">
-        <v>2.087698838595151</v>
+        <v>3.717423791204032</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>31.87886398774548</v>
+        <v>33.52700185717157</v>
       </c>
       <c r="J12">
-        <v>9.676677430155502</v>
+        <v>11.68146533057408</v>
       </c>
       <c r="K12">
-        <v>16.09822844449567</v>
+        <v>14.43645437798521</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>16.52381739495603</v>
+        <v>13.22114630574065</v>
       </c>
       <c r="C13">
-        <v>14.11366325802867</v>
+        <v>11.05657260960007</v>
       </c>
       <c r="D13">
-        <v>6.322535570673366</v>
+        <v>6.973668530032066</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>52.14262889268188</v>
+        <v>50.6904969827995</v>
       </c>
       <c r="G13">
-        <v>2.088294885288688</v>
+        <v>3.717597672471924</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>31.82935857983756</v>
+        <v>33.51663774430563</v>
       </c>
       <c r="J13">
-        <v>9.658119352258774</v>
+        <v>11.67960120623018</v>
       </c>
       <c r="K13">
-        <v>16.05089091170553</v>
+        <v>14.42912098134369</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>16.36411431489535</v>
+        <v>13.18803917727782</v>
       </c>
       <c r="C14">
-        <v>13.9749730359113</v>
+        <v>11.02335959073388</v>
       </c>
       <c r="D14">
-        <v>6.264309102175744</v>
+        <v>6.971457885051721</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>51.80206571958964</v>
+        <v>50.61520660405507</v>
       </c>
       <c r="G14">
-        <v>2.090239324300753</v>
+        <v>3.718167250264012</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>31.66813349240709</v>
+        <v>33.48292675526734</v>
       </c>
       <c r="J14">
-        <v>9.59764379958996</v>
+        <v>11.67358117986071</v>
       </c>
       <c r="K14">
-        <v>15.89593919277017</v>
+        <v>14.40528448096802</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>16.26582112108888</v>
+        <v>13.16780122640766</v>
       </c>
       <c r="C15">
-        <v>13.88969140255347</v>
+        <v>11.00302907648275</v>
       </c>
       <c r="D15">
-        <v>6.228471650691273</v>
+        <v>6.970149651902227</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>51.59345538851699</v>
+        <v>50.56920459643391</v>
       </c>
       <c r="G15">
-        <v>2.091430881445232</v>
+        <v>3.718518065906883</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>31.56954811370731</v>
+        <v>33.46234625485648</v>
       </c>
       <c r="J15">
-        <v>9.560636130129351</v>
+        <v>11.66993936407402</v>
       </c>
       <c r="K15">
-        <v>15.80058287808958</v>
+        <v>14.3907453880468</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>15.69521430094492</v>
+        <v>13.05249220771999</v>
       </c>
       <c r="C16">
-        <v>13.39581616052772</v>
+        <v>10.88676383280966</v>
       </c>
       <c r="D16">
-        <v>6.020421864545447</v>
+        <v>6.963357412109707</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.39785879092332</v>
+        <v>50.30740218461885</v>
       </c>
       <c r="G16">
-        <v>2.098270174647499</v>
+        <v>3.720558140015553</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>31.00713767310799</v>
+        <v>33.34547099221835</v>
       </c>
       <c r="J16">
-        <v>9.349093704516884</v>
+        <v>11.64977153021478</v>
       </c>
       <c r="K16">
-        <v>15.24720817276457</v>
+        <v>14.30839077052257</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>15.33850308757391</v>
+        <v>12.98238799944313</v>
       </c>
       <c r="C17">
-        <v>13.0881276250721</v>
+        <v>10.81569204941791</v>
       </c>
       <c r="D17">
-        <v>5.890354158562603</v>
+        <v>6.959821414728617</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>49.66424897026928</v>
+        <v>50.14846512082453</v>
       </c>
       <c r="G17">
-        <v>2.102478565050845</v>
+        <v>3.721836226546405</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>30.66433294851146</v>
+        <v>33.274735593183</v>
       </c>
       <c r="J17">
-        <v>9.219791065517381</v>
+        <v>11.63802833036462</v>
       </c>
       <c r="K17">
-        <v>14.90142210999542</v>
+        <v>14.25875097658032</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>15.13083674464225</v>
+        <v>12.94231458083364</v>
       </c>
       <c r="C18">
-        <v>12.90938190068037</v>
+        <v>10.77492180398695</v>
       </c>
       <c r="D18">
-        <v>5.814630458594454</v>
+        <v>6.958020163526932</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>49.24223918924447</v>
+        <v>50.05768187334601</v>
       </c>
       <c r="G18">
-        <v>2.104904900048829</v>
+        <v>3.722581140396724</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>30.46795792729836</v>
+        <v>33.23441049280829</v>
       </c>
       <c r="J18">
-        <v>9.145593139070259</v>
+        <v>11.63150619379609</v>
       </c>
       <c r="K18">
-        <v>14.70016771262311</v>
+        <v>14.23053255503894</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>15.06009158037257</v>
+        <v>12.92879059887796</v>
       </c>
       <c r="C19">
-        <v>12.84855390463671</v>
+        <v>10.76113777291614</v>
       </c>
       <c r="D19">
-        <v>5.788833491611981</v>
+        <v>6.95745029815573</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>49.09934491516704</v>
+        <v>50.02705478173739</v>
       </c>
       <c r="G19">
-        <v>2.105727509221833</v>
+        <v>3.722835040008612</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>30.40160434775847</v>
+        <v>33.22081948526925</v>
       </c>
       <c r="J19">
-        <v>9.120500981453297</v>
+        <v>11.62933789247842</v>
       </c>
       <c r="K19">
-        <v>14.63161534024047</v>
+        <v>14.22103632175925</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>15.37673284526074</v>
+        <v>12.98982532804436</v>
       </c>
       <c r="C20">
-        <v>13.12106407705006</v>
+        <v>10.8232468938282</v>
       </c>
       <c r="D20">
-        <v>5.904294123838322</v>
+        <v>6.960173774273162</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>49.74234898951003</v>
+        <v>50.16531914682303</v>
       </c>
       <c r="G20">
-        <v>2.102030000775375</v>
+        <v>3.721699159246499</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>30.70074226375723</v>
+        <v>33.28222836541465</v>
       </c>
       <c r="J20">
-        <v>9.23353762518652</v>
+        <v>11.63925440069329</v>
       </c>
       <c r="K20">
-        <v>14.93847556683716</v>
+        <v>14.26400094437159</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>16.41112073333102</v>
+        <v>13.1977550604198</v>
       </c>
       <c r="C21">
-        <v>14.01577820037231</v>
+        <v>11.03311234647447</v>
       </c>
       <c r="D21">
-        <v>6.281447379659258</v>
+        <v>6.972097654648338</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>51.90209838280203</v>
+        <v>50.63729724873192</v>
       </c>
       <c r="G21">
-        <v>2.089668091428231</v>
+        <v>3.717999548826484</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>31.71545370371253</v>
+        <v>33.49281425818544</v>
       </c>
       <c r="J21">
-        <v>9.615399541594567</v>
+        <v>11.67533990597899</v>
       </c>
       <c r="K21">
-        <v>15.94154448052403</v>
+        <v>14.41227308338157</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>17.0659678716918</v>
+        <v>13.33553175188407</v>
       </c>
       <c r="C22">
-        <v>14.58565050287478</v>
+        <v>11.17091325082801</v>
       </c>
       <c r="D22">
-        <v>6.520191206191058</v>
+        <v>6.981944839831887</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>53.3133514184739</v>
+        <v>50.95098523562519</v>
       </c>
       <c r="G22">
-        <v>2.081615739612738</v>
+        <v>3.715668224818828</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>32.38616777815035</v>
+        <v>33.63352405737741</v>
       </c>
       <c r="J22">
-        <v>9.866548382571004</v>
+        <v>11.70096879399893</v>
       </c>
       <c r="K22">
-        <v>16.57710521697407</v>
+        <v>14.51195212220973</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>16.71834871700761</v>
+        <v>13.26184151120706</v>
       </c>
       <c r="C23">
-        <v>14.28281187031841</v>
+        <v>11.09732304823376</v>
       </c>
       <c r="D23">
-        <v>6.393458672181171</v>
+        <v>6.976502142289633</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>52.56013509125192</v>
+        <v>50.78310656796942</v>
       </c>
       <c r="G23">
-        <v>2.085912249565291</v>
+        <v>3.716904603387289</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>32.02747682494044</v>
+        <v>33.55814908149711</v>
       </c>
       <c r="J23">
-        <v>9.732356050922872</v>
+        <v>11.68710426333221</v>
       </c>
       <c r="K23">
-        <v>16.23966930595802</v>
+        <v>14.45850709385915</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>15.35945724491323</v>
+        <v>12.98646219033377</v>
       </c>
       <c r="C24">
-        <v>13.10617928343572</v>
+        <v>10.81983106511595</v>
       </c>
       <c r="D24">
-        <v>5.897994816253071</v>
+        <v>6.960013750818886</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>49.70704074278198</v>
+        <v>50.157697593658</v>
       </c>
       <c r="G24">
-        <v>2.102232775007944</v>
+        <v>3.721761095827023</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>30.68427941115053</v>
+        <v>33.27883981752483</v>
       </c>
       <c r="J24">
-        <v>9.227322369807913</v>
+        <v>11.63869938018006</v>
       </c>
       <c r="K24">
-        <v>14.92173136473453</v>
+        <v>14.261626434568</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>13.79777898475838</v>
+        <v>12.69912170393811</v>
       </c>
       <c r="C25">
-        <v>11.82456817951764</v>
+        <v>10.5248515057762</v>
       </c>
       <c r="D25">
-        <v>5.328508498935625</v>
+        <v>6.951124982026238</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>46.62795722846241</v>
+        <v>49.50752335731908</v>
       </c>
       <c r="G25">
-        <v>2.120069168350524</v>
+        <v>3.727374368740752</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>29.26591336053704</v>
+        <v>32.99138835739185</v>
       </c>
       <c r="J25">
-        <v>8.689314070353092</v>
+        <v>11.5953752994632</v>
       </c>
       <c r="K25">
-        <v>13.40910148321747</v>
+        <v>14.06209544266976</v>
       </c>
       <c r="L25">
         <v>0</v>

--- a/Code/Results/Cases/Case_3_252/res_line/loading_percent.xlsx
+++ b/Code/Results/Cases/Case_3_252/res_line/loading_percent.xlsx
@@ -421,34 +421,34 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>12.49760842841439</v>
+        <v>12.5604068154404</v>
       </c>
       <c r="C2">
-        <v>10.31311485474843</v>
+        <v>10.88055865993742</v>
       </c>
       <c r="D2">
-        <v>6.952287733493436</v>
+        <v>4.87724711299632</v>
       </c>
       <c r="E2">
         <v>0</v>
       </c>
       <c r="F2">
-        <v>49.05179531031379</v>
+        <v>44.36222783984965</v>
       </c>
       <c r="G2">
-        <v>3.731833816890445</v>
+        <v>2.13351666336516</v>
       </c>
       <c r="H2">
         <v>0</v>
       </c>
       <c r="I2">
-        <v>32.79219347728996</v>
+        <v>28.2467481794719</v>
       </c>
       <c r="J2">
-        <v>11.57120687934617</v>
+        <v>8.299526352904541</v>
       </c>
       <c r="K2">
-        <v>13.92714429132187</v>
+        <v>12.21181543780585</v>
       </c>
       <c r="L2">
         <v>0</v>
@@ -468,34 +468,34 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>12.36815436899244</v>
+        <v>11.6650085258923</v>
       </c>
       <c r="C3">
-        <v>10.17389818579716</v>
+        <v>10.21512495499547</v>
       </c>
       <c r="D3">
-        <v>6.95789911822943</v>
+        <v>4.55070531173872</v>
       </c>
       <c r="E3">
         <v>0</v>
       </c>
       <c r="F3">
-        <v>48.75822040275949</v>
+        <v>42.83103876791776</v>
       </c>
       <c r="G3">
-        <v>3.735061714448932</v>
+        <v>2.142876208559539</v>
       </c>
       <c r="H3">
         <v>0</v>
       </c>
       <c r="I3">
-        <v>32.66522112047451</v>
+        <v>27.57184695342071</v>
       </c>
       <c r="J3">
-        <v>11.55968218319675</v>
+        <v>8.039946316897778</v>
       </c>
       <c r="K3">
-        <v>13.84357707147129</v>
+        <v>11.34593861002413</v>
       </c>
       <c r="L3">
         <v>0</v>
@@ -515,34 +515,34 @@
         <v>2</v>
       </c>
       <c r="B4">
-        <v>12.29244730342642</v>
+        <v>11.08654073924632</v>
       </c>
       <c r="C4">
-        <v>10.09081884668385</v>
+        <v>9.794385508472525</v>
       </c>
       <c r="D4">
-        <v>6.96372530009569</v>
+        <v>4.33975885784191</v>
       </c>
       <c r="E4">
         <v>0</v>
       </c>
       <c r="F4">
-        <v>48.5857898570913</v>
+        <v>41.89469842443987</v>
       </c>
       <c r="G4">
-        <v>3.73714579118933</v>
+        <v>2.14875901781018</v>
       </c>
       <c r="H4">
         <v>0</v>
       </c>
       <c r="I4">
-        <v>32.59129457117657</v>
+        <v>27.16540866501654</v>
       </c>
       <c r="J4">
-        <v>11.55500796382237</v>
+        <v>7.883114622989383</v>
       </c>
       <c r="K4">
-        <v>13.79628871250913</v>
+        <v>10.90926599525167</v>
       </c>
       <c r="L4">
         <v>0</v>
@@ -562,34 +562,34 @@
         <v>3</v>
       </c>
       <c r="B5">
-        <v>12.26258531599481</v>
+        <v>10.84350615031363</v>
       </c>
       <c r="C5">
-        <v>10.05760990460859</v>
+        <v>9.619991550542228</v>
       </c>
       <c r="D5">
-        <v>6.966698154444735</v>
+        <v>4.251138678821544</v>
       </c>
       <c r="E5">
         <v>0</v>
       </c>
       <c r="F5">
-        <v>48.51753304315556</v>
+        <v>41.51439804133124</v>
       </c>
       <c r="G5">
-        <v>3.738020847014389</v>
+        <v>2.151192502389591</v>
       </c>
       <c r="H5">
         <v>0</v>
       </c>
       <c r="I5">
-        <v>32.56219479329508</v>
+        <v>27.00181778525724</v>
       </c>
       <c r="J5">
-        <v>11.55370812733184</v>
+        <v>7.819897215238367</v>
       </c>
       <c r="K5">
-        <v>13.77804815087575</v>
+        <v>10.7361391116196</v>
       </c>
       <c r="L5">
         <v>0</v>
@@ -609,34 +609,34 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>12.25768760564685</v>
+        <v>10.8027067731108</v>
       </c>
       <c r="C6">
-        <v>10.05213586392019</v>
+        <v>9.590860331472449</v>
       </c>
       <c r="D6">
-        <v>6.967227942308185</v>
+        <v>4.236262008321452</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>48.50632162171384</v>
+        <v>41.45133557208152</v>
       </c>
       <c r="G6">
-        <v>3.73816770906511</v>
+        <v>2.151598822161054</v>
       </c>
       <c r="H6">
         <v>0</v>
       </c>
       <c r="I6">
-        <v>32.55742506449046</v>
+        <v>26.97477774704838</v>
       </c>
       <c r="J6">
-        <v>11.55352884751589</v>
+        <v>7.809443432141222</v>
       </c>
       <c r="K6">
-        <v>13.77508202117208</v>
+        <v>10.70726124142547</v>
       </c>
       <c r="L6">
         <v>0</v>
@@ -656,34 +656,34 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>12.29204051867663</v>
+        <v>11.08329277908486</v>
       </c>
       <c r="C7">
-        <v>10.09036830564446</v>
+        <v>9.792045284028546</v>
       </c>
       <c r="D7">
-        <v>6.963762969530864</v>
+        <v>4.338574494588929</v>
       </c>
       <c r="E7">
         <v>0</v>
       </c>
       <c r="F7">
-        <v>48.58486113012662</v>
+        <v>41.88956400284189</v>
       </c>
       <c r="G7">
-        <v>3.737157488000071</v>
+        <v>2.148791687561012</v>
       </c>
       <c r="H7">
         <v>0</v>
       </c>
       <c r="I7">
-        <v>32.59089795373105</v>
+        <v>27.16319412661286</v>
       </c>
       <c r="J7">
-        <v>11.55498798342117</v>
+        <v>7.882259175059941</v>
       </c>
       <c r="K7">
-        <v>13.79603852123921</v>
+        <v>10.90694002034478</v>
       </c>
       <c r="L7">
         <v>0</v>
@@ -703,34 +703,34 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>12.45221266600198</v>
+        <v>12.25757172544122</v>
       </c>
       <c r="C8">
-        <v>10.26464098668703</v>
+        <v>10.65369950414803</v>
       </c>
       <c r="D8">
-        <v>6.953728514025712</v>
+        <v>4.766804824486729</v>
       </c>
       <c r="E8">
         <v>0</v>
       </c>
       <c r="F8">
-        <v>48.94897275177786</v>
+        <v>43.83365303258518</v>
       </c>
       <c r="G8">
-        <v>3.732925655276739</v>
+        <v>2.136716849800418</v>
       </c>
       <c r="H8">
         <v>0</v>
       </c>
       <c r="I8">
-        <v>32.74758303462028</v>
+        <v>28.01241105387938</v>
       </c>
       <c r="J8">
-        <v>11.56673531318657</v>
+        <v>8.209522718943195</v>
       </c>
       <c r="K8">
-        <v>13.89750707436058</v>
+        <v>11.91892367701474</v>
       </c>
       <c r="L8">
         <v>0</v>
@@ -750,34 +750,34 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>12.79446508917625</v>
+        <v>14.33711102566695</v>
       </c>
       <c r="C9">
-        <v>10.62348497829853</v>
+        <v>12.24377201366737</v>
       </c>
       <c r="D9">
-        <v>6.952924896379267</v>
+        <v>5.52519138820637</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>49.72309350978052</v>
+        <v>47.66525517147809</v>
       </c>
       <c r="G9">
-        <v>3.725433096568447</v>
+        <v>2.114019217311945</v>
       </c>
       <c r="H9">
         <v>0</v>
       </c>
       <c r="I9">
-        <v>33.08631831306225</v>
+        <v>29.73975650614611</v>
       </c>
       <c r="J9">
-        <v>11.60877329974384</v>
+        <v>8.869617418039667</v>
       </c>
       <c r="K9">
-        <v>14.12750945212752</v>
+        <v>13.93127941059786</v>
       </c>
       <c r="L9">
         <v>0</v>
@@ -797,34 +797,34 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>13.06052414946532</v>
+        <v>15.73558274182669</v>
       </c>
       <c r="C10">
-        <v>10.89488718851029</v>
+        <v>13.43068832673559</v>
       </c>
       <c r="D10">
-        <v>6.963792355107554</v>
+        <v>6.035141100982763</v>
       </c>
       <c r="E10">
         <v>0</v>
       </c>
       <c r="F10">
-        <v>50.32562240902146</v>
+        <v>50.48156089269595</v>
       </c>
       <c r="G10">
-        <v>3.720413626236144</v>
+        <v>2.097790672242218</v>
       </c>
       <c r="H10">
         <v>0</v>
       </c>
       <c r="I10">
-        <v>33.35359075913089</v>
+        <v>31.04636322491067</v>
       </c>
       <c r="J10">
-        <v>11.65114290635816</v>
+        <v>9.363871481587617</v>
       </c>
       <c r="K10">
-        <v>14.31409950750622</v>
+        <v>15.28634747371899</v>
       </c>
       <c r="L10">
         <v>0</v>
@@ -844,34 +844,34 @@
         <v>9</v>
       </c>
       <c r="B11">
-        <v>13.1841665925265</v>
+        <v>16.34534565115484</v>
       </c>
       <c r="C11">
-        <v>11.01947094925209</v>
+        <v>13.95868423272711</v>
       </c>
       <c r="D11">
-        <v>6.971204989577963</v>
+        <v>6.257466126101395</v>
       </c>
       <c r="E11">
         <v>0</v>
       </c>
       <c r="F11">
-        <v>50.60640272176905</v>
+        <v>51.76217342058082</v>
       </c>
       <c r="G11">
-        <v>3.718234222255561</v>
+        <v>2.090467152554903</v>
       </c>
       <c r="H11">
         <v>0</v>
       </c>
       <c r="I11">
-        <v>33.47898706161649</v>
+        <v>31.64927094041319</v>
       </c>
       <c r="J11">
-        <v>11.67288204482321</v>
+        <v>9.590564712433594</v>
       </c>
       <c r="K11">
-        <v>14.40250049878202</v>
+        <v>15.87773058031577</v>
       </c>
       <c r="L11">
         <v>0</v>
@@ -891,34 +891,34 @@
         <v>10</v>
       </c>
       <c r="B12">
-        <v>13.23131413534141</v>
+        <v>16.57260122291897</v>
       </c>
       <c r="C12">
-        <v>11.06676186724516</v>
+        <v>14.15605981600481</v>
       </c>
       <c r="D12">
-        <v>6.974364665737866</v>
+        <v>6.340321548842819</v>
       </c>
       <c r="E12">
         <v>0</v>
       </c>
       <c r="F12">
-        <v>50.71362922305364</v>
+        <v>52.24705556329591</v>
       </c>
       <c r="G12">
-        <v>3.717423791204032</v>
+        <v>2.087698838595276</v>
       </c>
       <c r="H12">
         <v>0</v>
       </c>
       <c r="I12">
-        <v>33.52700185717157</v>
+        <v>31.87886398774558</v>
       </c>
       <c r="J12">
-        <v>11.68146533057408</v>
+        <v>9.676677430155495</v>
       </c>
       <c r="K12">
-        <v>14.43645437798521</v>
+        <v>16.0982284444956</v>
       </c>
       <c r="L12">
         <v>0</v>
@@ -938,34 +938,34 @@
         <v>11</v>
       </c>
       <c r="B13">
-        <v>13.22114630574065</v>
+        <v>16.523817394956</v>
       </c>
       <c r="C13">
-        <v>11.05657260960007</v>
+        <v>14.11366325802867</v>
       </c>
       <c r="D13">
-        <v>6.973668530032066</v>
+        <v>6.322535570673457</v>
       </c>
       <c r="E13">
         <v>0</v>
       </c>
       <c r="F13">
-        <v>50.6904969827995</v>
+        <v>52.14262889268192</v>
       </c>
       <c r="G13">
-        <v>3.717597672471924</v>
+        <v>2.088294885288424</v>
       </c>
       <c r="H13">
         <v>0</v>
       </c>
       <c r="I13">
-        <v>33.51663774430563</v>
+        <v>31.82935857983759</v>
       </c>
       <c r="J13">
-        <v>11.67960120623018</v>
+        <v>9.658119352258774</v>
       </c>
       <c r="K13">
-        <v>14.42912098134369</v>
+        <v>16.05089091170549</v>
       </c>
       <c r="L13">
         <v>0</v>
@@ -985,34 +985,34 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>13.18803917727782</v>
+        <v>16.36411431489539</v>
       </c>
       <c r="C14">
-        <v>11.02335959073388</v>
+        <v>13.97497303591125</v>
       </c>
       <c r="D14">
-        <v>6.971457885051721</v>
+        <v>6.26430910217569</v>
       </c>
       <c r="E14">
         <v>0</v>
       </c>
       <c r="F14">
-        <v>50.61520660405507</v>
+        <v>51.80206571958972</v>
       </c>
       <c r="G14">
-        <v>3.718167250264012</v>
+        <v>2.090239324300616</v>
       </c>
       <c r="H14">
         <v>0</v>
       </c>
       <c r="I14">
-        <v>33.48292675526734</v>
+        <v>31.66813349240713</v>
       </c>
       <c r="J14">
-        <v>11.67358117986071</v>
+        <v>9.597643799589923</v>
       </c>
       <c r="K14">
-        <v>14.40528448096802</v>
+        <v>15.89593919277018</v>
       </c>
       <c r="L14">
         <v>0</v>
@@ -1032,34 +1032,34 @@
         <v>13</v>
       </c>
       <c r="B15">
-        <v>13.16780122640766</v>
+        <v>16.26582112108886</v>
       </c>
       <c r="C15">
-        <v>11.00302907648275</v>
+        <v>13.88969140255354</v>
       </c>
       <c r="D15">
-        <v>6.970149651902227</v>
+        <v>6.228471650691245</v>
       </c>
       <c r="E15">
         <v>0</v>
       </c>
       <c r="F15">
-        <v>50.56920459643391</v>
+        <v>51.59345538851695</v>
       </c>
       <c r="G15">
-        <v>3.718518065906883</v>
+        <v>2.091430881445102</v>
       </c>
       <c r="H15">
         <v>0</v>
       </c>
       <c r="I15">
-        <v>33.46234625485648</v>
+        <v>31.56954811370728</v>
       </c>
       <c r="J15">
-        <v>11.66993936407402</v>
+        <v>9.560636130129337</v>
       </c>
       <c r="K15">
-        <v>14.3907453880468</v>
+        <v>15.80058287808959</v>
       </c>
       <c r="L15">
         <v>0</v>
@@ -1079,34 +1079,34 @@
         <v>14</v>
       </c>
       <c r="B16">
-        <v>13.05249220771999</v>
+        <v>15.69521430094504</v>
       </c>
       <c r="C16">
-        <v>10.88676383280966</v>
+        <v>13.39581616052763</v>
       </c>
       <c r="D16">
-        <v>6.963357412109707</v>
+        <v>6.020421864545429</v>
       </c>
       <c r="E16">
         <v>0</v>
       </c>
       <c r="F16">
-        <v>50.30740218461885</v>
+        <v>50.39785879092332</v>
       </c>
       <c r="G16">
-        <v>3.720558140015553</v>
+        <v>2.098270174647769</v>
       </c>
       <c r="H16">
         <v>0</v>
       </c>
       <c r="I16">
-        <v>33.34547099221835</v>
+        <v>31.00713767310794</v>
       </c>
       <c r="J16">
-        <v>11.64977153021478</v>
+        <v>9.349093704516905</v>
       </c>
       <c r="K16">
-        <v>14.30839077052257</v>
+        <v>15.24720817276463</v>
       </c>
       <c r="L16">
         <v>0</v>
@@ -1126,34 +1126,34 @@
         <v>15</v>
       </c>
       <c r="B17">
-        <v>12.98238799944313</v>
+        <v>15.33850308757375</v>
       </c>
       <c r="C17">
-        <v>10.81569204941791</v>
+        <v>13.0881276250721</v>
       </c>
       <c r="D17">
-        <v>6.959821414728617</v>
+        <v>5.89035415856271</v>
       </c>
       <c r="E17">
         <v>0</v>
       </c>
       <c r="F17">
-        <v>50.14846512082453</v>
+        <v>49.66424897026948</v>
       </c>
       <c r="G17">
-        <v>3.721836226546405</v>
+        <v>2.102478565051116</v>
       </c>
       <c r="H17">
         <v>0</v>
       </c>
       <c r="I17">
-        <v>33.274735593183</v>
+        <v>30.66433294851168</v>
       </c>
       <c r="J17">
-        <v>11.63802833036462</v>
+        <v>9.219791065517375</v>
       </c>
       <c r="K17">
-        <v>14.25875097658032</v>
+        <v>14.90142210999535</v>
       </c>
       <c r="L17">
         <v>0</v>
@@ -1173,34 +1173,34 @@
         <v>16</v>
       </c>
       <c r="B18">
-        <v>12.94231458083364</v>
+        <v>15.13083674464232</v>
       </c>
       <c r="C18">
-        <v>10.77492180398695</v>
+        <v>12.90938190068023</v>
       </c>
       <c r="D18">
-        <v>6.958020163526932</v>
+        <v>5.814630458594519</v>
       </c>
       <c r="E18">
         <v>0</v>
       </c>
       <c r="F18">
-        <v>50.05768187334601</v>
+        <v>49.24223918924451</v>
       </c>
       <c r="G18">
-        <v>3.722581140396724</v>
+        <v>2.104904900048559</v>
       </c>
       <c r="H18">
         <v>0</v>
       </c>
       <c r="I18">
-        <v>33.23441049280829</v>
+        <v>30.46795792729836</v>
       </c>
       <c r="J18">
-        <v>11.63150619379609</v>
+        <v>9.145593139070254</v>
       </c>
       <c r="K18">
-        <v>14.23053255503894</v>
+        <v>14.70016771262308</v>
       </c>
       <c r="L18">
         <v>0</v>
@@ -1220,34 +1220,34 @@
         <v>17</v>
       </c>
       <c r="B19">
-        <v>12.92879059887796</v>
+        <v>15.0600915803725</v>
       </c>
       <c r="C19">
-        <v>10.76113777291614</v>
+        <v>12.84855390463667</v>
       </c>
       <c r="D19">
-        <v>6.95745029815573</v>
+        <v>5.788833491612049</v>
       </c>
       <c r="E19">
         <v>0</v>
       </c>
       <c r="F19">
-        <v>50.02705478173739</v>
+        <v>49.09934491516704</v>
       </c>
       <c r="G19">
-        <v>3.722835040008612</v>
+        <v>2.105727509221827</v>
       </c>
       <c r="H19">
         <v>0</v>
       </c>
       <c r="I19">
-        <v>33.22081948526925</v>
+        <v>30.40160434775851</v>
       </c>
       <c r="J19">
-        <v>11.62933789247842</v>
+        <v>9.120500981453281</v>
       </c>
       <c r="K19">
-        <v>14.22103632175925</v>
+        <v>14.63161534024043</v>
       </c>
       <c r="L19">
         <v>0</v>
@@ -1267,34 +1267,34 @@
         <v>18</v>
       </c>
       <c r="B20">
-        <v>12.98982532804436</v>
+        <v>15.3767328452608</v>
       </c>
       <c r="C20">
-        <v>10.8232468938282</v>
+        <v>13.12106407705003</v>
       </c>
       <c r="D20">
-        <v>6.960173774273162</v>
+        <v>5.904294123838385</v>
       </c>
       <c r="E20">
         <v>0</v>
       </c>
       <c r="F20">
-        <v>50.16531914682303</v>
+        <v>49.74234898950994</v>
       </c>
       <c r="G20">
-        <v>3.721699159246499</v>
+        <v>2.102030000775372</v>
       </c>
       <c r="H20">
         <v>0</v>
       </c>
       <c r="I20">
-        <v>33.28222836541465</v>
+        <v>30.70074226375714</v>
       </c>
       <c r="J20">
-        <v>11.63925440069329</v>
+        <v>9.233537625186521</v>
       </c>
       <c r="K20">
-        <v>14.26400094437159</v>
+        <v>14.9384755668372</v>
       </c>
       <c r="L20">
         <v>0</v>
@@ -1314,34 +1314,34 @@
         <v>19</v>
       </c>
       <c r="B21">
-        <v>13.1977550604198</v>
+        <v>16.41112073333105</v>
       </c>
       <c r="C21">
-        <v>11.03311234647447</v>
+        <v>14.0157782003722</v>
       </c>
       <c r="D21">
-        <v>6.972097654648338</v>
+        <v>6.281447379659061</v>
       </c>
       <c r="E21">
         <v>0</v>
       </c>
       <c r="F21">
-        <v>50.63729724873192</v>
+        <v>51.90209838280219</v>
       </c>
       <c r="G21">
-        <v>3.717999548826484</v>
+        <v>2.089668091428109</v>
       </c>
       <c r="H21">
         <v>0</v>
       </c>
       <c r="I21">
-        <v>33.49281425818544</v>
+        <v>31.7154537037126</v>
       </c>
       <c r="J21">
-        <v>11.67533990597899</v>
+        <v>9.615399541594583</v>
       </c>
       <c r="K21">
-        <v>14.41227308338157</v>
+        <v>15.94154448052406</v>
       </c>
       <c r="L21">
         <v>0</v>
@@ -1361,34 +1361,34 @@
         <v>20</v>
       </c>
       <c r="B22">
-        <v>13.33553175188407</v>
+        <v>17.06596787169186</v>
       </c>
       <c r="C22">
-        <v>11.17091325082801</v>
+        <v>14.5856505028747</v>
       </c>
       <c r="D22">
-        <v>6.981944839831887</v>
+        <v>6.520191206191083</v>
       </c>
       <c r="E22">
         <v>0</v>
       </c>
       <c r="F22">
-        <v>50.95098523562519</v>
+        <v>53.31335141847398</v>
       </c>
       <c r="G22">
-        <v>3.715668224818828</v>
+        <v>2.081615739612613</v>
       </c>
       <c r="H22">
         <v>0</v>
       </c>
       <c r="I22">
-        <v>33.63352405737741</v>
+        <v>32.38616777815039</v>
       </c>
       <c r="J22">
-        <v>11.70096879399893</v>
+        <v>9.866548382570956</v>
       </c>
       <c r="K22">
-        <v>14.51195212220973</v>
+        <v>16.57710521697405</v>
       </c>
       <c r="L22">
         <v>0</v>
@@ -1408,34 +1408,34 @@
         <v>21</v>
       </c>
       <c r="B23">
-        <v>13.26184151120706</v>
+        <v>16.71834871700776</v>
       </c>
       <c r="C23">
-        <v>11.09732304823376</v>
+        <v>14.28281187031846</v>
       </c>
       <c r="D23">
-        <v>6.976502142289633</v>
+        <v>6.393458672180927</v>
       </c>
       <c r="E23">
         <v>0</v>
       </c>
       <c r="F23">
-        <v>50.78310656796942</v>
+        <v>52.56013509125208</v>
       </c>
       <c r="G23">
-        <v>3.716904603387289</v>
+        <v>2.085912249565296</v>
       </c>
       <c r="H23">
         <v>0</v>
       </c>
       <c r="I23">
-        <v>33.55814908149711</v>
+        <v>32.02747682494048</v>
       </c>
       <c r="J23">
-        <v>11.68710426333221</v>
+        <v>9.732356050922867</v>
       </c>
       <c r="K23">
-        <v>14.45850709385915</v>
+        <v>16.23966930595813</v>
       </c>
       <c r="L23">
         <v>0</v>
@@ -1455,34 +1455,34 @@
         <v>22</v>
       </c>
       <c r="B24">
-        <v>12.98646219033377</v>
+        <v>15.35945724491323</v>
       </c>
       <c r="C24">
-        <v>10.81983106511595</v>
+        <v>13.10617928343567</v>
       </c>
       <c r="D24">
-        <v>6.960013750818886</v>
+        <v>5.897994816253229</v>
       </c>
       <c r="E24">
         <v>0</v>
       </c>
       <c r="F24">
-        <v>50.157697593658</v>
+        <v>49.70704074278192</v>
       </c>
       <c r="G24">
-        <v>3.721761095827023</v>
+        <v>2.102232775007812</v>
       </c>
       <c r="H24">
         <v>0</v>
       </c>
       <c r="I24">
-        <v>33.27883981752483</v>
+        <v>30.68427941115052</v>
       </c>
       <c r="J24">
-        <v>11.63869938018006</v>
+        <v>9.227322369807933</v>
       </c>
       <c r="K24">
-        <v>14.261626434568</v>
+        <v>14.92173136473449</v>
       </c>
       <c r="L24">
         <v>0</v>
@@ -1502,34 +1502,34 @@
         <v>23</v>
       </c>
       <c r="B25">
-        <v>12.69912170393811</v>
+        <v>13.79777898475838</v>
       </c>
       <c r="C25">
-        <v>10.5248515057762</v>
+        <v>11.82456817951766</v>
       </c>
       <c r="D25">
-        <v>6.951124982026238</v>
+        <v>5.328508498935629</v>
       </c>
       <c r="E25">
         <v>0</v>
       </c>
       <c r="F25">
-        <v>49.50752335731908</v>
+        <v>46.62795722846232</v>
       </c>
       <c r="G25">
-        <v>3.727374368740752</v>
+        <v>2.120069168350524</v>
       </c>
       <c r="H25">
         <v>0</v>
       </c>
       <c r="I25">
-        <v>32.99138835739185</v>
+        <v>29.26591336053703</v>
       </c>
       <c r="J25">
-        <v>11.5953752994632</v>
+        <v>8.689314070353111</v>
       </c>
       <c r="K25">
-        <v>14.06209544266976</v>
+        <v>13.40910148321746</v>
       </c>
       <c r="L25">
         <v>0</v>
